--- a/biology/Botanique/Clitocybe_odora/Clitocybe_odora.xlsx
+++ b/biology/Botanique/Clitocybe_odora/Clitocybe_odora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clitocybe odorant
 Clitocybe odora, de son nom vernaculaire, le Clitocybe odorant ou Clitocybe anisé, est un champignon agaricomycète du genre Clitocybe et de la famille des Tricholomataceae.
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 (chapeau) : de 3 à 7 cm, convexe puis s'aplatissant, à marge finement enroulée 
@@ -554,7 +568,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Saprophyte, principalement dans les bois de feuillus, moins fréquemment sous les conifères et parfois en lisière de ceux-ci, à partir du milieu de l'été et jusqu'à la fin de l'automne.
 </t>
@@ -585,7 +601,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu probable dans des conditions normales en raison de la couleur qui le distingue des autres membres de la famille ainsi que son odeur anisé typique.
 </t>
@@ -616,7 +634,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comestible de bonne qualité, il est le plus souvent utilisé comme condiment. Il est possible comme avec la truffe, de le mettre dans un bocal avec œuf qui en prendra le parfum.
 </t>
